--- a/Data/metadaten_grafiken_eidgenössische_Abstimmungen.xlsx
+++ b/Data/metadaten_grafiken_eidgenössische_Abstimmungen.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/20240303_LENA_Abstimmungen/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw\OneDrive\LENA_Project\20240303_LENA_Abstimmungen\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_F5FCF57BC3574AFC124848694240877D2E23D9B7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5C87DF0-804E-4471-BCCB-2D0494804D06}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F6F0A4-4700-4816-9F99-4E1501F4CDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schweiz" sheetId="1" r:id="rId1"/>
@@ -1210,10 +1210,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1556,41 +1560,46 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1616,7 +1625,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1642,7 +1651,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1668,7 +1677,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1687,14 +1696,14 @@
       <c r="F5" t="s">
         <v>44</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>59</v>
       </c>
       <c r="H5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1720,7 +1729,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1746,7 +1755,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1772,7 +1781,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1798,7 +1807,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1824,7 +1833,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1850,7 +1859,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1876,7 +1885,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1902,7 +1911,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1928,7 +1937,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1954,7 +1963,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1989,21 +1998,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D903A31-A966-4D3D-9627-54F72F4D9A5E}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2029,7 +2038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -2055,7 +2064,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -2081,7 +2090,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -2107,7 +2116,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -2133,7 +2142,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>104</v>
       </c>
@@ -2159,7 +2168,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -2185,7 +2194,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -2211,7 +2220,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -2237,7 +2246,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -2263,7 +2272,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -2289,7 +2298,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>130</v>
       </c>
@@ -2315,7 +2324,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>130</v>
       </c>
@@ -2341,7 +2350,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>139</v>
       </c>
@@ -2367,7 +2376,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -2393,7 +2402,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>148</v>
       </c>
@@ -2419,7 +2428,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>148</v>
       </c>
@@ -2445,7 +2454,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>148</v>
       </c>
@@ -2471,7 +2480,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>148</v>
       </c>
@@ -2497,7 +2506,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -2523,7 +2532,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>165</v>
       </c>
@@ -2549,7 +2558,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>174</v>
       </c>
@@ -2575,7 +2584,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>174</v>
       </c>
@@ -2601,7 +2610,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>183</v>
       </c>
@@ -2627,7 +2636,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>183</v>
       </c>
@@ -2653,7 +2662,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>183</v>
       </c>
@@ -2679,7 +2688,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>183</v>
       </c>
@@ -2705,7 +2714,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>200</v>
       </c>
@@ -2731,7 +2740,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>200</v>
       </c>
@@ -2757,7 +2766,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>209</v>
       </c>
@@ -2783,7 +2792,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>209</v>
       </c>
@@ -2809,7 +2818,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>218</v>
       </c>
@@ -2835,7 +2844,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>218</v>
       </c>
@@ -2861,7 +2870,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>227</v>
       </c>
@@ -2887,7 +2896,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>227</v>
       </c>
@@ -2913,7 +2922,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>236</v>
       </c>
@@ -2939,7 +2948,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>236</v>
       </c>
@@ -2965,7 +2974,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>245</v>
       </c>
@@ -2991,7 +3000,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>245</v>
       </c>
@@ -3017,7 +3026,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>254</v>
       </c>
@@ -3043,7 +3052,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>254</v>
       </c>
@@ -3069,7 +3078,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>263</v>
       </c>
@@ -3095,7 +3104,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>263</v>
       </c>
@@ -3121,7 +3130,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>272</v>
       </c>
@@ -3147,7 +3156,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>272</v>
       </c>
@@ -3173,7 +3182,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>281</v>
       </c>
@@ -3199,7 +3208,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>281</v>
       </c>
@@ -3225,7 +3234,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>290</v>
       </c>
@@ -3251,7 +3260,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>290</v>
       </c>
@@ -3277,7 +3286,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>299</v>
       </c>
@@ -3303,7 +3312,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>299</v>
       </c>
@@ -3329,7 +3338,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>308</v>
       </c>
@@ -3355,7 +3364,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>308</v>
       </c>
@@ -3381,7 +3390,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>317</v>
       </c>
@@ -3407,7 +3416,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>317</v>
       </c>
@@ -3433,7 +3442,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>317</v>
       </c>
@@ -3459,7 +3468,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>317</v>
       </c>
@@ -3485,7 +3494,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>334</v>
       </c>
@@ -3511,7 +3520,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>334</v>
       </c>
@@ -3537,7 +3546,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>343</v>
       </c>
@@ -3563,7 +3572,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>343</v>
       </c>

--- a/Data/metadaten_grafiken_eidgenössische_Abstimmungen.xlsx
+++ b/Data/metadaten_grafiken_eidgenössische_Abstimmungen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw\OneDrive\LENA_Project\20240303_LENA_Abstimmungen\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F6F0A4-4700-4816-9F99-4E1501F4CDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4E7934-DCE6-428F-95E1-1A3261F6BCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="255" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schweiz" sheetId="1" r:id="rId1"/>
@@ -1214,10 +1214,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1559,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,7 +1571,7 @@
     <col min="6" max="6" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1677,7 +1675,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1696,7 +1694,7 @@
       <c r="F5" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>59</v>
       </c>
       <c r="H5" t="s">
@@ -1998,7 +1996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D903A31-A966-4D3D-9627-54F72F4D9A5E}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
